--- a/Документация/Расчет нагрузки 20 минут 6 операций Фролов.xlsx
+++ b/Документация/Расчет нагрузки 20 минут 6 операций Фролов.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6885" windowHeight="6330" tabRatio="859"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6885" windowHeight="6330" tabRatio="859" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Расчетная таблица" sheetId="1" r:id="rId1"/>
@@ -1792,8 +1792,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1801,14 +1801,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1825,11 +1822,17 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1849,18 +1852,6 @@
     <xf numFmtId="0" fontId="6" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1871,13 +1862,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2208,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2229,22 +2229,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="112" t="s">
@@ -2280,11 +2280,11 @@
       <c r="K3" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="114" t="s">
+      <c r="L3" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="113"/>
@@ -2439,7 +2439,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="28">
-        <f t="shared" ref="J6:J9" si="3">ROUND(G7*H7*I7,0)</f>
+        <f t="shared" ref="J7:J9" si="3">ROUND(G7*H7*I7,0)</f>
         <v>71</v>
       </c>
       <c r="K7" s="102">
@@ -2604,12 +2604,12 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="74">
         <f>SUM(E5:E10)</f>
         <v>200</v>
@@ -2668,15 +2668,15 @@
       <c r="N12" s="69"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66">
         <f>180/3</f>
@@ -2701,20 +2701,20 @@
       <c r="C15" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="123"/>
-      <c r="F15" s="122" t="s">
+      <c r="E15" s="115"/>
+      <c r="F15" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="123"/>
+      <c r="G15" s="115"/>
       <c r="H15" s="66"/>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="114" t="s">
+      <c r="J15" s="124"/>
+      <c r="K15" s="121" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="112" t="s">
@@ -2748,9 +2748,9 @@
         <v>33</v>
       </c>
       <c r="H16" s="66"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="114"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="121"/>
       <c r="L16" s="113"/>
       <c r="M16" s="35"/>
       <c r="N16" s="24"/>
@@ -2789,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="66"/>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="111"/>
+      <c r="J17" s="122"/>
       <c r="K17" s="40">
         <v>0.74099999999999999</v>
       </c>
@@ -2836,10 +2836,10 @@
         <v>3.2110091743119296E-2</v>
       </c>
       <c r="H18" s="66"/>
-      <c r="I18" s="111" t="s">
+      <c r="I18" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="111"/>
+      <c r="J18" s="122"/>
       <c r="K18" s="40">
         <v>0.74099999999999999</v>
       </c>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="66"/>
-      <c r="I19" s="111" t="s">
+      <c r="I19" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="111"/>
+      <c r="J19" s="122"/>
       <c r="K19" s="40">
         <v>0.74099999999999999</v>
       </c>
@@ -2930,10 +2930,10 @@
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="H20" s="66"/>
-      <c r="I20" s="111" t="s">
+      <c r="I20" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="111"/>
+      <c r="J20" s="122"/>
       <c r="K20" s="40">
         <v>0.74099999999999999</v>
       </c>
@@ -2977,10 +2977,10 @@
         <v>7.905138339920903E-3</v>
       </c>
       <c r="H21" s="66"/>
-      <c r="I21" s="111" t="s">
+      <c r="I21" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="111"/>
+      <c r="J21" s="122"/>
       <c r="K21" s="40">
         <v>0.74099999999999999</v>
       </c>
@@ -3024,10 +3024,10 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H22" s="66"/>
-      <c r="I22" s="111" t="s">
+      <c r="I22" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="111"/>
+      <c r="J22" s="122"/>
       <c r="K22" s="41">
         <v>0.74099999999999999</v>
       </c>
@@ -3205,12 +3205,12 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="101"/>
@@ -3353,11 +3353,11 @@
       <c r="O35"/>
     </row>
     <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="119"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="77">
         <f>SUM(D32:D35)</f>
         <v>4360</v>
@@ -3407,11 +3407,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:G13"/>
@@ -3428,16 +3433,11 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
@@ -3470,17 +3470,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
@@ -4815,45 +4815,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="126" t="s">
+      <c r="G3" s="129"/>
+      <c r="H3" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="126"/>
+      <c r="I3" s="127"/>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
@@ -5244,11 +5244,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="70">
         <f>SUM(D5:D14)</f>
         <v>2810</v>
@@ -5275,34 +5275,34 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129" t="s">
+      <c r="E17" s="130"/>
+      <c r="F17" s="130" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="129"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -5332,7 +5332,7 @@
         <f>E19*3</f>
         <v>219</v>
       </c>
-      <c r="I19" s="139">
+      <c r="I19" s="111">
         <f>H19/SUM($H$19:$H$24)</f>
         <v>0.16743119266055045</v>
       </c>
@@ -5365,7 +5365,7 @@
         <f t="shared" ref="H20:H24" si="4">E20*3</f>
         <v>540</v>
       </c>
-      <c r="I20" s="139">
+      <c r="I20" s="111">
         <f t="shared" ref="I20:I24" si="5">H20/SUM($H$19:$H$24)</f>
         <v>0.41284403669724773</v>
       </c>
@@ -5398,7 +5398,7 @@
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="I21" s="139">
+      <c r="I21" s="111">
         <f t="shared" si="5"/>
         <v>0.16055045871559634</v>
       </c>
@@ -5431,7 +5431,7 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I22" s="139">
+      <c r="I22" s="111">
         <f t="shared" si="5"/>
         <v>3.4403669724770644E-2</v>
       </c>
@@ -5464,7 +5464,7 @@
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="I23" s="139">
+      <c r="I23" s="111">
         <f t="shared" si="5"/>
         <v>8.7155963302752298E-2</v>
       </c>
@@ -5497,17 +5497,17 @@
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="I24" s="139">
+      <c r="I24" s="111">
         <f t="shared" si="5"/>
         <v>0.13761467889908258</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="73">
         <f>SUM(D19:D24)</f>
         <v>436</v>
@@ -6281,45 +6281,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="135" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="126" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="126"/>
+      <c r="I3" s="127"/>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
@@ -6710,11 +6710,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="70">
         <f>SUM(D5:D14)</f>
         <v>5620</v>
@@ -6741,26 +6741,26 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129" t="s">
+      <c r="E17" s="130"/>
+      <c r="F17" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="132" t="s">
+      <c r="H17" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="132"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="110" t="s">
         <v>184</v>
       </c>
@@ -6769,20 +6769,20 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="129"/>
-      <c r="H18" s="133" t="s">
+      <c r="F18" s="130"/>
+      <c r="H18" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="I18" s="133"/>
+      <c r="I18" s="134"/>
       <c r="J18" s="7">
         <f>E25*3</f>
         <v>2418</v>
@@ -6816,10 +6816,10 @@
         <f t="shared" ref="F19:F24" si="1">1-D19/E19</f>
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="H19" s="137" t="s">
+      <c r="H19" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="137"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="7">
         <f>MIN(E29:E34)</f>
         <v>6.3390000000000004</v>
@@ -6853,10 +6853,10 @@
         <f t="shared" si="1"/>
         <v>-9.4224924012157985E-2</v>
       </c>
-      <c r="H20" s="133" t="s">
+      <c r="H20" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="133"/>
+      <c r="I20" s="134"/>
       <c r="J20" s="7">
         <f>MAX(E29:E34)</f>
         <v>11.201000000000001</v>
@@ -6890,10 +6890,10 @@
         <f t="shared" si="1"/>
         <v>-0.15447154471544722</v>
       </c>
-      <c r="H21" s="133" t="s">
+      <c r="H21" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="133"/>
+      <c r="I21" s="134"/>
       <c r="J21" s="7">
         <f>MAX(F29:F34)</f>
         <v>18.988</v>
@@ -6927,10 +6927,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="131" t="s">
+      <c r="H22" s="137" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="131"/>
+      <c r="I22" s="137"/>
       <c r="J22" s="7">
         <f>MAX(H29:H34)</f>
         <v>15.676</v>
@@ -6964,8 +6964,8 @@
         <f t="shared" si="1"/>
         <v>-7.0422535211267512E-2</v>
       </c>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
     </row>
     <row r="24" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -6991,15 +6991,15 @@
         <f t="shared" si="1"/>
         <v>-8.1081081081081141E-2</v>
       </c>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="73">
         <f>SUM(D19:D24)</f>
         <v>872</v>
@@ -7014,18 +7014,18 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="107"/>
       <c r="M27" s="107"/>
       <c r="N27" s="107"/>
@@ -7813,11 +7813,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7825,17 +7827,15 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B27:K27"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
@@ -7865,45 +7865,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="135" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="126" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="126"/>
+      <c r="I3" s="127"/>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
@@ -8294,11 +8294,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="70">
         <f>'Расчетная таблица'!D27</f>
         <v>2810</v>
@@ -8325,26 +8325,26 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129" t="s">
+      <c r="E17" s="130"/>
+      <c r="F17" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="132" t="s">
+      <c r="H17" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="132"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="110" t="s">
         <v>184</v>
       </c>
@@ -8353,20 +8353,20 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="129"/>
-      <c r="H18" s="133" t="s">
+      <c r="F18" s="130"/>
+      <c r="H18" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="I18" s="133"/>
+      <c r="I18" s="134"/>
       <c r="J18" s="7">
         <f>E25*3</f>
         <v>2004</v>
@@ -8400,10 +8400,10 @@
         <f t="shared" ref="F19:F24" si="1">1-D19/E19</f>
         <v>-1.0709219858156027</v>
       </c>
-      <c r="H19" s="137" t="s">
+      <c r="H19" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="137"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="7">
         <f>MIN(E29:E34)</f>
         <v>29.373000000000001</v>
@@ -8437,10 +8437,10 @@
         <f t="shared" si="1"/>
         <v>-1.9752066115702478</v>
       </c>
-      <c r="H20" s="133" t="s">
+      <c r="H20" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="133"/>
+      <c r="I20" s="134"/>
       <c r="J20" s="7">
         <f>MAX(E29:E34)</f>
         <v>44.987000000000002</v>
@@ -8474,10 +8474,10 @@
         <f t="shared" si="1"/>
         <v>-1.8118811881188117</v>
       </c>
-      <c r="H21" s="133" t="s">
+      <c r="H21" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="133"/>
+      <c r="I21" s="134"/>
       <c r="J21" s="7">
         <f>MAX(F29:F34)</f>
         <v>58.457999999999998</v>
@@ -8511,10 +8511,10 @@
         <f t="shared" si="1"/>
         <v>-0.30232558139534893</v>
       </c>
-      <c r="H22" s="131" t="s">
+      <c r="H22" s="137" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="131"/>
+      <c r="I22" s="137"/>
       <c r="J22" s="7">
         <f>MAX(H29:H34)</f>
         <v>50.491999999999997</v>
@@ -8575,11 +8575,11 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="73">
         <f>SUM(D19:D24)</f>
         <v>1744</v>
@@ -8594,18 +8594,18 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="107"/>
       <c r="M27" s="107"/>
       <c r="N27" s="107"/>
@@ -9687,6 +9687,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A15:C15"/>
@@ -9701,13 +9708,6 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
@@ -9718,7 +9718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E19" sqref="E19:F24"/>
     </sheetView>
   </sheetViews>
@@ -9737,45 +9737,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="135" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="126" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="126"/>
+      <c r="I3" s="127"/>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
@@ -10166,11 +10166,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="70">
         <f>'Расчетная таблица'!D27</f>
         <v>2810</v>
@@ -10197,26 +10197,26 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129" t="s">
+      <c r="E17" s="130"/>
+      <c r="F17" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="132" t="s">
+      <c r="H17" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="132"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="110" t="s">
         <v>184</v>
       </c>
@@ -10225,20 +10225,20 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="129"/>
-      <c r="H18" s="133" t="s">
+      <c r="F18" s="130"/>
+      <c r="H18" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="I18" s="133"/>
+      <c r="I18" s="134"/>
       <c r="J18" s="3">
         <f>E25</f>
         <v>1302</v>
@@ -10272,10 +10272,10 @@
         <f t="shared" ref="F19:F24" si="1">1-D19/E19</f>
         <v>-4.5871559633028358E-3</v>
       </c>
-      <c r="H19" s="137" t="s">
+      <c r="H19" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="137"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="7">
         <f>MIN($E$90:$E$95)</f>
         <v>0.871</v>
@@ -10309,10 +10309,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="133" t="s">
+      <c r="H20" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="133"/>
+      <c r="I20" s="134"/>
       <c r="J20" s="7">
         <f>MAX($E$90:$E$95)</f>
         <v>2.3340000000000001</v>
@@ -10346,10 +10346,10 @@
         <f t="shared" si="1"/>
         <v>-2.4038461538461453E-2</v>
       </c>
-      <c r="H21" s="133" t="s">
+      <c r="H21" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="133"/>
+      <c r="I21" s="134"/>
       <c r="J21" s="7">
         <f>MAX(F90:F95)</f>
         <v>2.9409999999999998</v>
@@ -10383,10 +10383,10 @@
         <f t="shared" si="1"/>
         <v>2.3255813953488413E-2</v>
       </c>
-      <c r="H22" s="131" t="s">
+      <c r="H22" s="137" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="131"/>
+      <c r="I22" s="137"/>
       <c r="J22" s="7">
         <f>MAX(H90:H95)</f>
         <v>2.5990000000000002</v>
@@ -10447,11 +10447,11 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="73">
         <f>SUM(D19:D24)</f>
         <v>1308</v>
@@ -10466,18 +10466,18 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
       <c r="L27" s="107"/>
       <c r="M27" s="107"/>
       <c r="N27" s="107"/>
@@ -11033,18 +11033,18 @@
     </row>
     <row r="45" spans="2:11" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="139" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
     </row>
     <row r="47" spans="2:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="95" t="s">
@@ -11592,18 +11592,18 @@
     </row>
     <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="138" t="s">
+      <c r="B65" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="138"/>
-      <c r="J65" s="138"/>
-      <c r="K65" s="138"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="139"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="139"/>
+      <c r="J65" s="139"/>
+      <c r="K65" s="139"/>
     </row>
     <row r="66" spans="2:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="95" t="s">
@@ -12248,18 +12248,18 @@
     <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="138" t="s">
+      <c r="B88" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="138"/>
-      <c r="D88" s="138"/>
-      <c r="E88" s="138"/>
-      <c r="F88" s="138"/>
-      <c r="G88" s="138"/>
-      <c r="H88" s="138"/>
-      <c r="I88" s="138"/>
-      <c r="J88" s="138"/>
-      <c r="K88" s="138"/>
+      <c r="C88" s="139"/>
+      <c r="D88" s="139"/>
+      <c r="E88" s="139"/>
+      <c r="F88" s="139"/>
+      <c r="G88" s="139"/>
+      <c r="H88" s="139"/>
+      <c r="I88" s="139"/>
+      <c r="J88" s="139"/>
+      <c r="K88" s="139"/>
     </row>
     <row r="89" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B89" s="95" t="s">
@@ -12839,18 +12839,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B88:K88"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
@@ -12863,6 +12851,18 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
